--- a/OhioCompaniesByYear/Ohio_2007.xlsx
+++ b/OhioCompaniesByYear/Ohio_2007.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_dd6\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Data Analytics in Business/HousingProject/OhioCompaniesByYear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{EDC5D455-44B9-46E5-BF57-21EDBF830E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D4DFDD2-B4FA-4662-B132-5EA28494F4B2}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{EDC5D455-44B9-46E5-BF57-21EDBF830E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97EA54AD-7359-42F8-9745-B8BEAE1EF7A7}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20010" yWindow="3255" windowWidth="22830" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1072,12 +1072,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1119,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1133,7 +1134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1161,7 +1162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1175,7 +1176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1203,7 +1204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1259,7 +1260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1273,7 +1274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1315,7 +1316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1329,7 +1330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1343,7 +1344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1357,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1371,7 +1372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1385,7 +1386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1399,7 +1400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1441,7 +1442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1455,7 +1456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1483,7 +1484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1511,7 +1512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1553,7 +1554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1567,7 +1568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1595,7 +1596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1609,7 +1610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1637,7 +1638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1651,7 +1652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1665,7 +1666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1679,7 +1680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1693,7 +1694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1721,7 +1722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1735,7 +1736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1749,7 +1750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1763,7 +1764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1777,7 +1778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1791,7 +1792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1805,7 +1806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1819,7 +1820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1833,7 +1834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -1861,7 +1862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -1875,7 +1876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -1889,7 +1890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -1917,7 +1918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
